--- a/AAII_Financials/Yearly/SC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>SC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7905200</v>
+      </c>
+      <c r="E8" s="3">
         <v>7172200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6755100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6623100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6509400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5713000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4144900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3244200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3047000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3193900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2647500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2246200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1802900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1355200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>999500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>928100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>374000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>418500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4711300</v>
+      </c>
+      <c r="E10" s="3">
         <v>4524700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4508800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4820200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5154200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4713500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3216900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2870200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2628500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,8 +828,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,9 +858,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,9 +891,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,9 +924,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,9 +957,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6551000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5979900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5951100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5462400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5219800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4591800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2996600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2055600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1794800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1354300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1192300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>804000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1160700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1289600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1121100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1148300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1188500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1252200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,8 +1053,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1049,39 +1083,45 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3342800</v>
+      </c>
+      <c r="E21" s="3">
         <v>2860700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2207700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2255500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2111400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1692100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1296200</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1510400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1109,69 +1149,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1354300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1192300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>804000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1160700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1289600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1121100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1148300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1188500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1252200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>359900</v>
+      </c>
+      <c r="E24" s="3">
         <v>276300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>280900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>394200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>465600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>395900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>427100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>453600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>464000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>994400</v>
+      </c>
+      <c r="E26" s="3">
         <v>915900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>523100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>766500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>824000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>725300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>721200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>734900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>788200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>994400</v>
+      </c>
+      <c r="E27" s="3">
         <v>915900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>523100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>766500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>824000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>725300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>723000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>715000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>768200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,20 +1347,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>649700</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1319,9 +1380,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,9 +1446,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1409,39 +1479,45 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>994400</v>
+      </c>
+      <c r="E33" s="3">
         <v>915900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1172800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>766500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>824000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>725300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>723000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>715000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>768200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>994400</v>
+      </c>
+      <c r="E35" s="3">
         <v>915900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1172800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>766500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>824000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>725300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>723000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>715000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>768200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,38 +1649,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E41" s="3">
         <v>148400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>527800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>160200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>70900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1622,39 +1712,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>394200</v>
+      </c>
+      <c r="E43" s="3">
         <v>418900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>457800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>566000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>586800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22596800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20697700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16534300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16930800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1682,39 +1778,45 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E45" s="3">
         <v>29100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>35900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1742,99 +1844,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28888600</v>
+      </c>
+      <c r="E47" s="3">
         <v>26312500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24738800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25715300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26522100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26401200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1418200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>95600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>198300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16579400</v>
+      </c>
+      <c r="E48" s="3">
         <v>14040100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10229900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8632100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6555300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4904000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4072600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E49" s="3">
         <v>109300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>103800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>106700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>107100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>181400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>128700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>126700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>125400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2079200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2102000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2553900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2757300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2236300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1939900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1760700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1796700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1969700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48933500</v>
+      </c>
+      <c r="E54" s="3">
         <v>43959900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39402800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38539100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36449000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32396500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26401900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18741600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19404400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,38 +2141,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>499300</v>
+      </c>
+      <c r="E57" s="3">
         <v>423000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>429500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>379000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>413300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>315100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>283100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>156600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>219000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2070,39 +2204,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>167600</v>
+      </c>
+      <c r="E59" s="3">
         <v>112600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>120900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>84000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>83500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2130,59 +2270,65 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39194100</v>
+      </c>
+      <c r="E61" s="3">
         <v>34883000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31160400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31323700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30375700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>27811300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23295700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16228000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16790500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1468200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1155900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>892400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1278100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>881200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>511300</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2190,9 +2336,12 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41614900</v>
+      </c>
+      <c r="E66" s="3">
         <v>36941500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32937100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33300500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32016400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28802800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23715100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16542100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17187700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6168700</v>
+      </c>
+      <c r="E72" s="3">
         <v>5465700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4736300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3549200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2782700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2026100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1276800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>869700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>889700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7318600</v>
+      </c>
+      <c r="E76" s="3">
         <v>7018400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6465700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5238600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4432500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3593700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2686800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2199500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2216700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>994400</v>
+      </c>
+      <c r="E81" s="3">
         <v>915900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1172800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>766500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>824000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>725300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>723000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>715000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>768200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1988600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1668500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1403700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1094800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>821800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>571000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>147900</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>258200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5533200</v>
+      </c>
+      <c r="E89" s="3">
         <v>6244900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3941300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4473100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3909700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3887900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2097500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1442600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1555600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8589800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9829800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6024300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5619900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5168300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4502200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2444200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9272400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10415800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3590300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4742400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7715200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24720700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23711000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,38 +3295,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-291500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-180300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-10800</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-52300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-290400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-735000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-865300</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,39 +3424,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3649800</v>
+      </c>
+      <c r="E100" s="3">
         <v>3339700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-186800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>931500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3791200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4463300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6781100</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2003800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3235,43 +3484,49 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-831200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>164200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>662300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-60400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>SC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,169 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8108500</v>
+      </c>
+      <c r="E8" s="3">
         <v>7905200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7172200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6755100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6623100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6509400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5713000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4144900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3244200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3047000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3282100</v>
+      </c>
+      <c r="E9" s="3">
         <v>3193900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2647500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2246200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1802900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1355200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>999500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>928100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>374000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>418500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4826400</v>
+      </c>
+      <c r="E10" s="3">
         <v>4711300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4524700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4508800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4820200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5154200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4713500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3216900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2870200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2628500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,8 +841,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,9 +874,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -894,9 +910,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -927,9 +946,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,9 +982,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6898600</v>
+      </c>
+      <c r="E17" s="3">
         <v>6551000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5979900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5951100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5462400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5219800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4591800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2996600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2055600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1794800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1209800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1354300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1192300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>804000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1160700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1289600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1121100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1148300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1188500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1252200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,8 +1086,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,42 +1119,48 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3418800</v>
+      </c>
+      <c r="E21" s="3">
         <v>3342800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2860700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2207700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2255500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2111400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1692100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1296200</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1510400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1152,75 +1191,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1209800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1354300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1192300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>804000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1160700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1289600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1121100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1148300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1188500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1252200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>298900</v>
+      </c>
+      <c r="E24" s="3">
         <v>359900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>276300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>280900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>394200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>465600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>395900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>427100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>453600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>464000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>910900</v>
+      </c>
+      <c r="E26" s="3">
         <v>994400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>915900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>523100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>766500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>824000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>725300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>721200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>734900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>788200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>910900</v>
+      </c>
+      <c r="E27" s="3">
         <v>994400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>915900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>523100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>766500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>824000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>725300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>723000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>715000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>768200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,9 +1407,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,11 +1422,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>649700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1383,9 +1443,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,9 +1515,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1482,42 +1551,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>910900</v>
+      </c>
+      <c r="E33" s="3">
         <v>994400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>915900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1172800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>766500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>824000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>725300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>723000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>715000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>768200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>910900</v>
+      </c>
+      <c r="E35" s="3">
         <v>994400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>915900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1172800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>766500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>824000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>725300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>723000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>715000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>768200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,41 +1735,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E41" s="3">
         <v>81800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>148400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>527800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>160200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1715,42 +1804,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E43" s="3">
         <v>394200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>418900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>457800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>566000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>586800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22596800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20697700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16534300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16930800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1781,42 +1876,48 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E45" s="3">
         <v>45600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>35900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31600</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1847,108 +1948,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28705800</v>
+      </c>
+      <c r="E47" s="3">
         <v>28888600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26312500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>24738800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25715300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26522100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26401200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1418200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>95600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>198300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16499600</v>
+      </c>
+      <c r="E48" s="3">
         <v>16579400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14040100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10229900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8632100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6555300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4904000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4072600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E49" s="3">
         <v>116800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>109300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>103800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>106700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>107100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>181400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>128700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>126700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>125400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2221100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2079200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2102000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2553900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2757300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2236300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1939900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1760700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1796700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1969700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48887500</v>
+      </c>
+      <c r="E54" s="3">
         <v>48933500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43959900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39402800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38539100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36449000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32396500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26401900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18741600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19404400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,41 +2271,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>531400</v>
+      </c>
+      <c r="E57" s="3">
         <v>499300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>423000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>429500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>379000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>413300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>315100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>283100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>156600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>219000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2207,42 +2340,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E59" s="3">
         <v>167600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>112600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>120900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2273,65 +2412,71 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41138700</v>
+      </c>
+      <c r="E61" s="3">
         <v>39194100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>34883000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31160400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31323700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30375700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>27811300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23295700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16228000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16790500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1263800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1468200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1155900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>892400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1278100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>881200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>511300</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2339,9 +2484,12 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2405,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43265500</v>
+      </c>
+      <c r="E66" s="3">
         <v>41614900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36941500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32937100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33300500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32016400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28802800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23715100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16542100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17187700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5275700</v>
+      </c>
+      <c r="E72" s="3">
         <v>6168700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5465700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4736300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3549200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2782700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2026100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1276800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>869700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>889700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5622000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7318600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7018400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6465700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5238600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4432500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3593700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2686800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2199500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2216700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>910900</v>
+      </c>
+      <c r="E81" s="3">
         <v>994400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>915900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1172800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>766500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>824000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>725300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>723000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>715000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>768200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2209000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1988600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1668500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1403700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1094800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>821800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>571000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>147900</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>258200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4012500</v>
+      </c>
+      <c r="E89" s="3">
         <v>5533200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6244900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3941300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4473100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3909700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3887900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2097500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1442600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1555600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6884100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8589800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9829800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6024300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5619900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5168300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4502200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2444200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4767600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9272400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10415800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3590300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4742400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7715200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24720700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23711000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,41 +3528,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-212600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-291500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-180300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-10800</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-52300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-290400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-735000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-865300</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,42 +3669,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>924200</v>
+      </c>
+      <c r="E100" s="3">
         <v>3649800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3339700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-186800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>931500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3791200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4463300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6781100</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2003800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3487,46 +3735,52 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>169100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-89400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-831200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>164200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>662300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-60400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
